--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501069</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +794,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,25 +822,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,25 +860,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501069</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.39</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,15 +1022,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,25 +1050,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -1074,6 +1074,250 @@
       </c>
       <c r="H9" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1323,4 +1324,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1570,4 +1571,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1579,7 +1580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,17 +1591,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1610,14 +1631,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -1626,14 +1721,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1642,14 +1737,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -1658,13 +1753,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1674,7 +1675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,17 +1686,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1705,14 +1726,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -1721,14 +1816,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -1737,14 +1832,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
@@ -1753,14 +1848,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6">
@@ -1769,13 +1864,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1769,7 +1770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,17 +1781,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1800,14 +1821,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1816,14 +1859,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1832,14 +1897,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.2</v>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1848,14 +1935,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.42</v>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1864,14 +1973,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -1880,13 +2127,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002131-利欧股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +489,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>1.72</v>
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,100 +1177,6 @@
       </c>
       <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2419</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1006,26 +1251,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2702</t>
+          <t>0.2419</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +1305,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1090,188 +1335,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.14</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.54</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7395</t>
+          <t>0.2702</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3195</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1346,26 +1439,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.41</t>
+          <t>99.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0878</t>
+          <t>1.7395</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1384,26 +1477,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2426</t>
+          <t>0.3195</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1422,26 +1515,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.21</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1460,26 +1553,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1498,24 +1591,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1619,250 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1876,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
